--- a/outputs/MK Summary Table.xlsx
+++ b/outputs/MK Summary Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://partnershealthcare.sharepoint.com/sites/FDAOpioidmodelingteam/Shared Documents/Opioid Model/GitHub/NFLIS-analysis/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_49319373F7EBC2E4BA2E1B8D3969054BD6105D6E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F0574C3-79EF-4E31-B16D-2DC3FF767773}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="11_49319373F7EBC2E4BA2E1B8D3969054BD6105D6E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DAE93BC-16C3-412D-AAC9-B9C61CF39826}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12945" yWindow="450" windowWidth="17205" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MK trend test p values" sheetId="2" r:id="rId1"/>
@@ -233,15 +233,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -249,17 +255,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="321">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -298,12 +371,124 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
@@ -320,6 +505,2029 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -614,1680 +2822,1704 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C153663-3C6C-4DB8-ADD8-B7216ED364C2}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="10" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="2">
         <v>0.16</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>0.06</v>
       </c>
-      <c r="E2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="2">
         <v>1.6E-2</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2">
+      <c r="H2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="2">
         <v>0.64</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>2.3E-2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0.11</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="E3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>0.64</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>0.24</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="2">
         <v>0.87</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4">
+      <c r="H4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="2">
         <v>0.43</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>1.4E-2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>0.52</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>0.15</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>0.23</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>0.15</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>0.1</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>0.06</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>1E-3</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>1E-4</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <v>0.08</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>0.1</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>0.24</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="4">
         <v>0.64</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>0.11</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>1E-3</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>0.16</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>0.27</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>0.94</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>0.24</v>
       </c>
-      <c r="C9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="2">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="E9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="4">
         <v>0.67</v>
       </c>
-      <c r="H9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" t="s">
-        <v>62</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="H9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="2">
         <v>0.24</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>0.15</v>
       </c>
-      <c r="E10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10">
+      <c r="E10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="2">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="4">
         <v>0.64</v>
       </c>
-      <c r="H10" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="H10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>0.01</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>2E-3</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>0.43</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>0.13</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="2">
         <v>0.35</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>0.87</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>0.87</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12">
+      <c r="E12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="2">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>0.01</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <v>0.35</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <v>0.1</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13">
+      <c r="B13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13">
+      <c r="E13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="2">
         <v>0.11</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="H13" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" t="s">
-        <v>62</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="H13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>0.87</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>0.32</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>0.16</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>0.43</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>0.08</v>
       </c>
-      <c r="H14" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14">
+      <c r="H14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="4">
         <v>0.93</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>0.06</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="E15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15">
+      <c r="E15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="2">
         <v>1E-3</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="2">
         <v>0.08</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>0.15</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
         <v>1E-3</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="2">
         <v>0.64</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <v>0.87</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17">
+      <c r="E17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="4">
         <v>0.87</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="2">
         <v>0.32</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>0.1</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>1E-3</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>0.27</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="2">
         <v>0.06</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="2">
         <v>0.35</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>1E-3</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>2.4E-2</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>0.1</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="2">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>0.27</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>0.16</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20">
+      <c r="E20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="2">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H20" t="s">
-        <v>62</v>
-      </c>
-      <c r="I20">
+      <c r="H20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>0.64</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>0.43</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="4">
         <v>0.53</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="2">
         <v>0.17</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="2">
         <v>0.81</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>1E-3</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>0.31</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
         <v>2E-3</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="2">
         <v>0.15</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="2">
         <v>0.87</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E23" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23">
+      <c r="E23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="2">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="2">
         <v>0.35</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="2">
         <v>0.48</v>
       </c>
-      <c r="I23" t="s">
-        <v>62</v>
-      </c>
-      <c r="J23">
+      <c r="I23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" s="4">
         <v>0.64</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>0.43</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>1E-3</v>
       </c>
-      <c r="E24" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="E24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="2">
         <v>0.32</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="2">
         <v>0.27</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>0.8</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>0.67</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>2E-3</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>0.11</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <v>1E-4</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="2">
         <v>0.17</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="2">
         <v>0.34</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>0.15</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="4">
         <v>0.87</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <v>2E-3</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="2">
         <v>1E-3</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="2">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>0.64</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>0.64</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="2">
         <v>1E-4</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="4">
         <v>0.27</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="2">
         <v>0.08</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>0.27</v>
       </c>
-      <c r="C28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28">
+      <c r="C28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="2">
         <v>0.27</v>
       </c>
-      <c r="E28" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28">
+      <c r="E28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="2">
         <v>1E-3</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="2">
         <v>1E-3</v>
       </c>
-      <c r="H28" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28">
+      <c r="H28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="2">
         <v>0.64</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>0.23</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>0.52</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E29" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29">
+      <c r="E29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="2">
         <v>0.06</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="2">
         <v>0.94</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="4">
         <v>0.87</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="2">
         <v>0.51</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="4">
         <v>0.64</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="4">
         <v>0.64</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>0.84</v>
       </c>
-      <c r="E30" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30">
+      <c r="E30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="2">
         <v>0.41</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="2">
         <v>0.41</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="4">
         <v>0.87</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="4">
         <v>0.87</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>0.64</v>
       </c>
-      <c r="C31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31">
+      <c r="C31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E31" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31">
+      <c r="E31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="2">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="2">
         <v>0.64</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="4">
         <v>0.84</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>0.62</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>0.62</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>0.64</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>0.64</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
         <v>0.35</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="2">
         <v>1</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="4">
         <v>1</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="2">
         <v>0.87</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="4">
         <v>0.32</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>0.1</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>2E-3</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="2">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="2">
         <v>1E-3</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="2">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>0.06</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>2E-3</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>0.43</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="2">
         <v>1E-3</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="2">
         <v>0.24</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="2">
         <v>0.35</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>0.1</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>0.87</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="E35" t="s">
-        <v>62</v>
-      </c>
-      <c r="F35">
+      <c r="E35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="2">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="2">
         <v>2E-3</v>
       </c>
-      <c r="H35" t="s">
-        <v>62</v>
-      </c>
-      <c r="I35">
+      <c r="H35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I35" s="2">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="4">
         <v>0.87</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>0.31</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>2E-3</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>0.81</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="2">
         <v>0.27</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="2">
         <v>1E-3</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="2">
         <v>0.24</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>1E-3</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="2">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="2">
         <v>0.13</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>1.4E-2</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
         <v>0.15</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>0.27</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="2">
         <v>1E-4</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="2">
         <v>2E-3</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="2">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>0.64</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
         <v>0.35</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E39" t="s">
-        <v>62</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="E39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="4">
         <v>0.67</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="2">
         <v>0.16</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="2">
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>1</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="4">
         <v>0.6</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="E41" t="s">
-        <v>62</v>
-      </c>
-      <c r="F41">
+      <c r="E41" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" s="2">
         <v>0.06</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="2">
         <v>0.32</v>
       </c>
-      <c r="H41" t="s">
-        <v>62</v>
-      </c>
-      <c r="I41" t="s">
-        <v>62</v>
-      </c>
-      <c r="J41" t="s">
+      <c r="H41" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J41" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>1.6E-2</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
         <v>0.26</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <v>0.64</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="2">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="2">
         <v>1E-4</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="2">
         <v>0.2</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="4">
         <v>0.81</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B43" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43" t="s">
-        <v>62</v>
-      </c>
-      <c r="E43" t="s">
-        <v>62</v>
-      </c>
-      <c r="F43">
+      <c r="B43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="2">
         <v>0.1</v>
       </c>
-      <c r="H43" t="s">
-        <v>62</v>
-      </c>
-      <c r="I43" t="s">
-        <v>62</v>
-      </c>
-      <c r="J43" t="s">
+      <c r="H43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J43" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
         <v>1E-3</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="2">
         <v>0.27</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="2">
         <v>2E-3</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="2">
         <v>0.84</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="2">
         <v>0.52</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2">
         <v>1.6E-2</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="2">
         <v>0.15</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="2">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="2">
         <v>0.51</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="2">
         <v>0.15</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="2">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="2">
         <v>0.15</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="2">
         <v>0.06</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="2">
         <v>0.06</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="2">
         <v>2E-3</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="2">
         <v>0.81</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="2">
         <v>0.02</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="2">
         <v>0.32</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B48" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48">
+      <c r="B48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="2">
         <v>0.74</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="2">
         <v>0.53</v>
       </c>
-      <c r="E48" t="s">
-        <v>62</v>
-      </c>
-      <c r="F48">
+      <c r="E48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="2">
         <v>0.48</v>
       </c>
-      <c r="H48" t="s">
-        <v>62</v>
-      </c>
-      <c r="I48">
+      <c r="H48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I48" s="4">
         <v>1</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="2">
         <v>1</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="2">
         <v>0.84</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E49" t="s">
-        <v>62</v>
-      </c>
-      <c r="F49">
+      <c r="E49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F49" s="2">
         <v>1E-3</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="2">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="H49" t="s">
-        <v>62</v>
-      </c>
-      <c r="I49">
+      <c r="H49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I49" s="2">
         <v>0.27</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <v>0.19</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="2">
         <v>1E-3</v>
       </c>
-      <c r="E50" t="s">
-        <v>62</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="E50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="2">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="H50" t="s">
-        <v>62</v>
-      </c>
-      <c r="I50">
+      <c r="H50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I50" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="2">
         <v>0.1</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="2">
         <v>0.64</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="2">
         <v>0.42</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="4">
         <v>0.87</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="2">
         <v>0.44</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="2">
         <v>0.18</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="2">
         <v>0.74</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B52" t="s">
-        <v>62</v>
-      </c>
-      <c r="C52" t="s">
-        <v>62</v>
-      </c>
-      <c r="D52" t="s">
-        <v>62</v>
-      </c>
-      <c r="E52" t="s">
-        <v>62</v>
-      </c>
-      <c r="F52" t="s">
-        <v>62</v>
-      </c>
-      <c r="G52" t="s">
-        <v>62</v>
-      </c>
-      <c r="H52" t="s">
-        <v>62</v>
-      </c>
-      <c r="I52" t="s">
-        <v>62</v>
-      </c>
-      <c r="J52" t="s">
+      <c r="B52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J52" s="2" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:J52">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+  <conditionalFormatting sqref="B2:J6 B8:J8 B7:I7 B11:J11 B9:F10 H9:J10 B13:J13 C12:J12 B15:J16 C14:H14 B18:J20 B17 D17:G17 B22:J22 B21:C21 E21:F21 H21:J21 I17:J17 J14 B24:J25 B23:I23 B28:J28 B27:G27 I27:J27 B33:J35 B29:G29 I29:J29 B31:H31 J30:J31 B32:G32 I32 B40:J40 B39:G39 J39 B43:J47 B42:I42 B52:J52 B51:D51 F51:G51 B49:J50 B48:H48 J48 I51:J51 B41 D41:J41 B37:J38 C36:J36 D30:G30 B26:D26 F26:J26">
+    <cfRule type="cellIs" dxfId="286" priority="8" operator="equal">
       <formula>"NaN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="291" priority="7" operator="greaterThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="292" priority="5">
+      <formula>$F$11</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="293" priority="4" operator="containsText" text="&lt;0.0001">
+      <formula>NOT(ISERROR(SEARCH("&lt;0.0001",B2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="294" priority="3" operator="lessThan">
+      <formula>0.001</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="285" priority="2" operator="between">
+      <formula>0.05</formula>
+      <formula>0.001</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD6 A8:XFD8 A7:I7 K7:XFD7 A11:XFD11 A9:F10 H9:XFD10 A13:XFD13 A12 C12:XFD12 A15:XFD16 A14 C14:H14 A18:XFD20 A17:B17 D17:G17 A22:XFD22 A21:C21 E21:F21 H21:XFD21 I17:XFD17 J14:XFD14 A24:XFD25 A23:I23 K23:XFD23 A28:XFD28 A27:G27 I27:XFD27 A33:XFD35 A29:G29 I29:XFD29 A31:H31 J30:XFD31 A32:G32 I32 K32:XFD32 A40:XFD40 A39:G39 J39:XFD39 A43:XFD47 A42:I42 K42:XFD42 A52:XFD1048576 A51:D51 F51:G51 A49:XFD50 A48:H48 J48:XFD48 I51:XFD51 A41:B41 D41:XFD41 A37:XFD38 A36 C36:XFD36 A30 D30:G30 A26:D26 F26:XFD26">
+    <cfRule type="containsText" dxfId="275" priority="1" operator="containsText" text="NaN">
+      <formula>NOT(ISERROR(SEARCH("NaN",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2295,7 +4527,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{1BAE61DD-13AC-4CCB-A8B1-555DA7A0F026}">
+          <x14:cfRule type="expression" priority="9" id="{1BAE61DD-13AC-4CCB-A8B1-555DA7A0F026}">
             <xm:f>AND(B2="&lt;0.0001", 'MK trend test tau values'!B2&gt;=0)</xm:f>
             <x14:dxf>
               <fill>
@@ -2305,7 +4537,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="5" id="{934ED9D5-DC71-4DD2-84EB-B79B97CEC369}">
+          <x14:cfRule type="expression" priority="12" id="{934ED9D5-DC71-4DD2-84EB-B79B97CEC369}">
             <xm:f>AND(B2&lt;=0.05, 'MK trend test tau values'!B2&gt;=0)</xm:f>
             <x14:dxf>
               <fill>
@@ -2315,7 +4547,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="7" id="{E69BFF30-3B0C-4231-B9FE-725EF85D694E}">
+          <x14:cfRule type="expression" priority="14" id="{E69BFF30-3B0C-4231-B9FE-725EF85D694E}">
             <xm:f>AND(B2&gt;0.05, 'MK trend test tau values'!B2&gt;=0)</xm:f>
             <x14:dxf>
               <fill>
@@ -2325,7 +4557,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="10" id="{A6EC0716-23BF-46CB-AB5B-01BDD021672A}">
+          <x14:cfRule type="expression" priority="17" id="{A6EC0716-23BF-46CB-AB5B-01BDD021672A}">
             <xm:f>AND(B2&gt;0.05, 'MK trend test tau values'!B2&lt;0)</xm:f>
             <x14:dxf>
               <fill>
@@ -2335,7 +4567,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B2:J52</xm:sqref>
+          <xm:sqref>B2:J6 B8:J8 B7:I7 B11:J11 B9:F10 H9:J10 B13:J13 C12:J12 B15:J16 C14:H14 B18:J20 B17 D17:G17 B22:J22 B21:C21 E21:F21 H21:J21 I17:J17 J14 B24:J25 B23:I23 B28:J28 B27:G27 I27:J27 B33:J35 B29:G29 I29:J29 B31:H31 J30:J31 B32:G32 I32 B40:J40 B39:G39 J39 B43:J47 B42:I42 B52:J52 B51:D51 F51:G51 B49:J50 B48:H48 J48 I51:J51 B41 D41:J41 B37:J38 C36:J36 D30:G30 B26:D26 F26:J26</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4023,6 +6255,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A183296C2D9DE541958AD9D9A6E59D08" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="194e935bf1a3b4e70c597b1dc8f126e0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="12e73323-2992-4b61-9f89-f2ff99442528" xmlns:ns3="60bd3312-76b2-43ff-ab1e-17ba520e0d12" xmlns:ns4="d1680238-2266-4ab1-9ebd-8eb4f05a8cbc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e01af2702f34226b283a6048e4c18861" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="12e73323-2992-4b61-9f89-f2ff99442528"/>
@@ -4282,16 +6523,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B6A0FBA-39BF-4CAA-B728-99050CB6B4FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FAAE0EE-D0D3-4B1D-BDCF-D5D3446EAF99}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4309,12 +6549,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B6A0FBA-39BF-4CAA-B728-99050CB6B4FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>